--- a/Adatpont táblázat.xlsx
+++ b/Adatpont táblázat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Device IP</t>
   </si>
@@ -72,12 +72,6 @@
     <t>binary</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>AI</t>
   </si>
   <si>
@@ -124,6 +118,30 @@
   </si>
   <si>
     <t>Datapoint</t>
+  </si>
+  <si>
+    <t>text3</t>
+  </si>
+  <si>
+    <t>text4</t>
+  </si>
+  <si>
+    <t>combo2</t>
+  </si>
+  <si>
+    <t>text5</t>
+  </si>
+  <si>
+    <t>check2</t>
+  </si>
+  <si>
+    <t>check1</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -200,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,21 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -544,14 +565,14 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -560,7 +581,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -636,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -664,19 +685,19 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3">
         <v>4294967295</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3">
         <v>4294967295</v>
@@ -694,7 +715,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -710,7 +731,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -724,7 +745,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -738,7 +759,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3"/>
     </row>
@@ -752,7 +773,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -766,7 +787,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -780,7 +801,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -794,7 +815,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J13" s="3"/>
     </row>
@@ -808,9 +829,49 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Adatpont táblázat.xlsx
+++ b/Adatpont táblázat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Device IP</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
+    <t>text1</t>
+  </si>
+  <si>
+    <t>combo1</t>
   </si>
 </sst>
 </file>
@@ -230,10 +239,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,7 +555,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,20 +573,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -854,6 +863,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" t="s">
         <v>39</v>
       </c>
@@ -866,7 +884,7 @@
       <c r="H16" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>36</v>
       </c>
       <c r="J16" t="s">

--- a/Adatpont táblázat.xlsx
+++ b/Adatpont táblázat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Device IP</t>
   </si>
@@ -111,13 +111,7 @@
     <t>254.255.255.255</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Bacnet IP</t>
-  </si>
-  <si>
-    <t>Datapoint</t>
   </si>
   <si>
     <t>text3</t>
@@ -227,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,7 +232,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -552,77 +545,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -631,270 +617,252 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
         <v>4294967295</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3">
         <v>4294967295</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3">
-        <v>4294967295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>4</v>
+      </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>44</v>
+      <c r="D16" t="s">
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>35</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>

--- a/Adatpont táblázat.xlsx
+++ b/Adatpont táblázat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Device IP</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Adatpont</t>
-  </si>
-  <si>
-    <t>uint</t>
   </si>
   <si>
     <t>int</t>
@@ -547,7 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -570,7 +567,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -643,22 +640,22 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -668,22 +665,22 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3">
         <v>4294967295</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3">
         <v>4294967295</v>
@@ -700,22 +697,20 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -728,7 +723,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -741,7 +736,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -754,7 +749,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -767,7 +762,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -780,7 +775,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="3"/>
     </row>
@@ -793,7 +788,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -806,7 +801,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -832,31 +827,31 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
         <v>32</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" t="s">
         <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
